--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATION TEST\ProjectTest2025\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11694C22-3E8D-4108-B5E3-C5813E3AD471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82786F00-A2B4-49BA-97B2-F9AC26AA5AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20400" yWindow="-2700" windowWidth="20505" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="validLoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="emplVerification" sheetId="3" r:id="rId2"/>
-    <sheet name="invalidLoginData" sheetId="2" r:id="rId3"/>
+    <sheet name="d" sheetId="1" r:id="rId1"/>
+    <sheet name="validLoginData" sheetId="4" r:id="rId2"/>
+    <sheet name="emplVerification" sheetId="3" r:id="rId3"/>
+    <sheet name="invalidLoginData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -379,8 +380,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D3A90-6CE9-4E80-BB84-713141124496}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,15 +440,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE17F4-593B-4AB0-A627-B1AAE496B965}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -452,7 +488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4754976-57A0-4065-BFBC-BFC735FF0A6D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
